--- a/ES calc/Group-based interventions data.xlsx
+++ b/ES calc/Group-based interventions data.xlsx
@@ -1474,7 +1474,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Wuthrich et al.</t>
+          <t>Smith et al.</t>
         </is>
       </c>
       <c r="B3">
@@ -1931,7 +1931,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Wuthrich et al.</t>
+          <t>Smith et al.</t>
         </is>
       </c>
       <c r="B4">
@@ -2845,7 +2845,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Wuthrich et al.</t>
+          <t>Smith et al.</t>
         </is>
       </c>
       <c r="B6">
